--- a/Keywords/MainKeywords/Default.xlsx
+++ b/Keywords/MainKeywords/Default.xlsx
@@ -4,14 +4,29 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="LogOut" sheetId="4" r:id="rId4"/>
+    <sheet name="SelectProduct" sheetId="5" r:id="rId5"/>
+    <sheet name="SelectProductCategory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,16 +482,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16383" width="9.078125" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="18.56640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -486,7 +512,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -499,4 +525,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Keywords/MainKeywords/Default.xlsx
+++ b/Keywords/MainKeywords/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="LogOut" sheetId="4" r:id="rId4"/>
     <sheet name="SelectProduct" sheetId="5" r:id="rId5"/>
     <sheet name="SelectProductCategory" sheetId="6" r:id="rId6"/>
+    <sheet name="AddProductToCart" sheetId="7" r:id="rId7"/>
+    <sheet name="CheckIfProductExistsInCart" sheetId="8" r:id="rId8"/>
+    <sheet name="DeleteProductFromCart" sheetId="9" r:id="rId9"/>
+    <sheet name="PlaceOrder" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -485,7 +489,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -508,6 +512,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -540,65 +563,122 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Keywords/MainKeywords/Default.xlsx
+++ b/Keywords/MainKeywords/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="CheckIfProductExistsInCart" sheetId="8" r:id="rId8"/>
     <sheet name="DeleteProductFromCart" sheetId="9" r:id="rId9"/>
     <sheet name="PlaceOrder" sheetId="10" r:id="rId10"/>
+    <sheet name="CheckTotalPrice" sheetId="11" r:id="rId11"/>
+    <sheet name="CheckProductsPrice" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -516,6 +518,44 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Keywords/MainKeywords/Default.xlsx
+++ b/Keywords/MainKeywords/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <sheet name="PlaceOrder" sheetId="10" r:id="rId10"/>
     <sheet name="CheckTotalPrice" sheetId="11" r:id="rId11"/>
     <sheet name="CheckProductsPrice" sheetId="12" r:id="rId12"/>
+    <sheet name="OpenBrowser" sheetId="13" r:id="rId13"/>
+    <sheet name="CloseBrowser" sheetId="14" r:id="rId14"/>
+    <sheet name="CheckPurchase" sheetId="15" r:id="rId15"/>
+    <sheet name="GoToCart" sheetId="16" r:id="rId16"/>
+    <sheet name="CheckWelcomeMessage" sheetId="17" r:id="rId17"/>
+    <sheet name="VerifyContactContent" sheetId="18" r:id="rId18"/>
+    <sheet name="GoToContact" sheetId="19" r:id="rId19"/>
+    <sheet name="VerifyAboutUsContent" sheetId="20" r:id="rId20"/>
+    <sheet name="GoToAboutUs" sheetId="21" r:id="rId21"/>
+    <sheet name="VerifyCartContent" sheetId="22" r:id="rId22"/>
+    <sheet name="GoToHome" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -527,13 +538,127 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -552,7 +677,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -571,25 +810,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
-  <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -717,7 +937,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Keywords/MainKeywords/Default.xlsx
+++ b/Keywords/MainKeywords/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="GoToAboutUs" sheetId="21" r:id="rId21"/>
     <sheet name="VerifyCartContent" sheetId="22" r:id="rId22"/>
     <sheet name="GoToHome" sheetId="23" r:id="rId23"/>
+    <sheet name="SeeNextPicture" sheetId="24" r:id="rId24"/>
+    <sheet name="SeePreviousPicture" sheetId="25" r:id="rId25"/>
+    <sheet name="CheckProductInformation" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -671,17 +674,188 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -696,120 +870,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
-  <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
